--- a/Tools/ExcelGen/Input/测试表.xlsx
+++ b/Tools/ExcelGen/Input/测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20805" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="t_test" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>cs</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>int</t>
@@ -101,10 +98,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -129,61 +126,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,14 +209,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -236,6 +218,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -260,6 +250,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,13 +308,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,163 +458,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +544,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,15 +564,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +622,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1225,19 +1222,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5"/>
       <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1247,31 +1244,31 @@
     </row>
     <row r="5" s="11" customFormat="1" ht="15" spans="1:9">
       <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1279,16 +1276,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="12">
         <v>20</v>
@@ -1297,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1321,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1375,20 +1372,20 @@
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1401,31 +1398,31 @@
     </row>
     <row r="5" ht="15" spans="1:9">
       <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:9">
@@ -1433,16 +1430,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12">
@@ -1452,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
